--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="6000" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12045" yWindow="6000" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,9 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -607,19 +607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" customWidth="1"/>
+    <col min="7" max="7" width="65.625" customWidth="1"/>
     <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -766,11 +766,25 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>10200001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>10200001</v>
+      <c r="A11" s="2">
+        <v>10200002</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -782,15 +796,15 @@
         <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>10200002</v>
+        <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -799,15 +813,15 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>10300001</v>
+        <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -816,15 +830,12 @@
         <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>10300002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="A14" s="1">
+        <v>10400001</v>
       </c>
       <c r="E14">
         <v>0.5</v>
@@ -832,16 +843,27 @@
       <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="H14" t="s">
-        <v>31</v>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1">
+        <v>10400002</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>10400001</v>
+        <v>10400003</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -850,26 +872,29 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>10400002</v>
+        <v>10500001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>10400003</v>
+        <v>10500002</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -878,33 +903,40 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="1">
+        <v>10600101</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>10500001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+        <v>10600102</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>10500002</v>
+        <v>10600103</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -913,16 +945,26 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="1">
+        <v>10800001</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>10600101</v>
+        <v>10800002</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -931,12 +973,12 @@
         <v>0.5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>10600102</v>
+        <v>10800003</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -945,66 +987,6 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>10600103</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>10800001</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>10800002</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>10800003</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1021,14 +1003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="6000" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="3840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所用图集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所用骨骼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锚点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,19 +94,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reimu_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>player00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reimu_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔理沙</t>
+    <t>player01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stg1enm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉格露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stg2enm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小碎骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花田妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,75 +178,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>player01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八云蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stg1enm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莉格露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stg2enm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小碎骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色咒符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色咒符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花田妖精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹林妖精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺旋玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb</t>
+    <t>yukari_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,23 +202,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yukari_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八云紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱丽丝</t>
+    <t>所用图集json(多个用;隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用骨骼json(多个用;隔开),与前面的一一对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,9 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -607,19 +607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="65.625" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" customWidth="1"/>
     <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -654,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -677,16 +677,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1"/>
@@ -696,10 +696,10 @@
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -708,7 +708,7 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -716,7 +716,7 @@
         <v>10100002</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -725,7 +725,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -733,10 +733,10 @@
         <v>10100003</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -745,7 +745,7 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -753,7 +753,7 @@
         <v>10100004</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -762,7 +762,7 @@
         <v>0.5</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -770,16 +770,16 @@
         <v>10200001</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -787,7 +787,7 @@
         <v>10200002</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -796,7 +796,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -804,7 +804,7 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -813,7 +813,7 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -821,7 +821,7 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -830,7 +830,7 @@
         <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -844,7 +844,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -858,7 +858,7 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -872,7 +872,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -880,7 +880,7 @@
         <v>10500001</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0.75</v>
@@ -889,7 +889,7 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -903,12 +903,15 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>10600101</v>
+        <v>10600100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -917,12 +920,15 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>10600102</v>
+        <v>10600200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -931,12 +937,15 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>10600103</v>
+        <v>10600300</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -944,13 +953,14 @@
       <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>10800001</v>
+        <v>10600400</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -958,13 +968,14 @@
       <c r="F22">
         <v>0.5</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>10800002</v>
+        <v>10600500</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -972,22 +983,168 @@
       <c r="F23">
         <v>0.5</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
+        <v>10600600</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>10600700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>10600800</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>10600900</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>10601000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>10601100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>10601200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>10601300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>10800001</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>10800002</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>10800003</v>
       </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>42</v>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1003,14 +1160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="3840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6440" yWindow="6780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,13 +208,48 @@
   <si>
     <t>所用骨骼json(多个用;隔开),与前面的一一对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转(角度制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +283,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,19 +309,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,22 +664,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" customWidth="1"/>
+    <col min="12" max="12" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -637,13 +700,19 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -663,10 +732,22 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -686,12 +767,24 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:12" hidden="1"/>
+    <row r="5" spans="1:12" hidden="1"/>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
@@ -707,11 +800,20 @@
       <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
@@ -724,11 +826,20 @@
       <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
@@ -744,11 +855,20 @@
       <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
@@ -761,11 +881,20 @@
       <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>10200001</v>
       </c>
@@ -778,11 +907,20 @@
       <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10200002</v>
       </c>
@@ -795,11 +933,20 @@
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>10300001</v>
       </c>
@@ -812,11 +959,20 @@
       <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>10300002</v>
       </c>
@@ -829,11 +985,20 @@
       <c r="F13">
         <v>0.5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>10400001</v>
       </c>
@@ -843,11 +1008,20 @@
       <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>10400002</v>
       </c>
@@ -857,11 +1031,20 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>10400003</v>
       </c>
@@ -871,11 +1054,20 @@
       <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>10500001</v>
       </c>
@@ -883,16 +1075,25 @@
         <v>38</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>-90</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>10500002</v>
       </c>
@@ -902,13 +1103,22 @@
       <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>10600100</v>
+        <v>10600101</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -919,13 +1129,22 @@
       <c r="F19">
         <v>0.5</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>10600200</v>
+        <v>10600102</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -936,13 +1155,22 @@
       <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>10600300</v>
+        <v>10600103</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -953,11 +1181,20 @@
       <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>10600400</v>
+        <v>10600104</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -968,11 +1205,20 @@
       <c r="F22">
         <v>0.5</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>10600500</v>
+        <v>10600105</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -983,11 +1229,20 @@
       <c r="F23">
         <v>0.5</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>10600600</v>
+        <v>10600106</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -998,11 +1253,20 @@
       <c r="F24">
         <v>0.5</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>10600700</v>
+        <v>10600107</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -1013,11 +1277,20 @@
       <c r="F25">
         <v>0.5</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>10600800</v>
+        <v>10600108</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1028,11 +1301,20 @@
       <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>10600900</v>
+        <v>10600109</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -1043,11 +1325,20 @@
       <c r="F27">
         <v>0.5</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>10601000</v>
+        <v>10600110</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -1058,11 +1349,20 @@
       <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>10601100</v>
+        <v>10600111</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -1073,11 +1373,20 @@
       <c r="F29">
         <v>0.5</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>10601200</v>
+        <v>10600112</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1088,62 +1397,191 @@
       <c r="F30">
         <v>0.5</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>10601300</v>
-      </c>
-      <c r="B31" t="s">
+        <v>10600113</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>10600114</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>10600115</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>10600116</v>
+      </c>
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
         <v>10800001</v>
       </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
         <v>10800002</v>
       </c>
-      <c r="E33">
-        <v>0.5</v>
-      </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
         <v>10800003</v>
       </c>
-      <c r="E34">
-        <v>0.5</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="6780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6435" yWindow="6780" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,18 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>player00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,13 +226,72 @@
   </si>
   <si>
     <t>etama</t>
+  </si>
+  <si>
+    <t>增加火力</t>
+  </si>
+  <si>
+    <t>增加点数</t>
+  </si>
+  <si>
+    <t>大量火力</t>
+  </si>
+  <si>
+    <t>大量Bomb</t>
+  </si>
+  <si>
+    <t>大量F</t>
+  </si>
+  <si>
+    <t>加一条命</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>少量火力</t>
+  </si>
+  <si>
+    <t>少量点数</t>
+  </si>
+  <si>
+    <t>中等火力</t>
+  </si>
+  <si>
+    <t>中等Bomb</t>
+  </si>
+  <si>
+    <t>中等F</t>
+  </si>
+  <si>
+    <t>中等1Up</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>中等点数</t>
+  </si>
+  <si>
+    <t>etama2</t>
+  </si>
+  <si>
+    <t>etama2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,22 +362,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -663,26 +707,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="40.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="40.875" customWidth="1"/>
     <col min="12" max="12" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -691,19 +735,19 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -732,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -767,16 +811,16 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -789,7 +833,7 @@
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -844,10 +888,10 @@
         <v>10100003</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -865,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -891,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1072,7 +1116,7 @@
         <v>10500001</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0.875</v>
@@ -1121,7 +1165,7 @@
         <v>10600101</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -1139,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1147,7 +1191,7 @@
         <v>10600102</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -1173,7 +1217,7 @@
         <v>10600103</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -1197,7 +1241,7 @@
         <v>10600104</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -1221,7 +1265,7 @@
         <v>10600105</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -1245,7 +1289,7 @@
         <v>10600106</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1269,7 +1313,7 @@
         <v>10600107</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -1293,7 +1337,7 @@
         <v>10600108</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1317,7 +1361,7 @@
         <v>10600109</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -1341,7 +1385,7 @@
         <v>10600110</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -1365,7 +1409,7 @@
         <v>10600111</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -1389,7 +1433,7 @@
         <v>10600112</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -1413,7 +1457,7 @@
         <v>10600113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1441,7 +1485,7 @@
         <v>10600114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1469,7 +1513,7 @@
         <v>10600115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1497,7 +1541,7 @@
         <v>10600116</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0.5</v>
@@ -1517,9 +1561,12 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>10800001</v>
       </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E35">
         <v>0.5</v>
       </c>
@@ -1535,14 +1582,17 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>35</v>
+      <c r="L35" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>10800002</v>
       </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E36">
         <v>0.5</v>
       </c>
@@ -1558,14 +1608,17 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>36</v>
+      <c r="L36" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>10800003</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E37">
         <v>0.5</v>
       </c>
@@ -1581,31 +1634,364 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>37</v>
+      <c r="L37" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <v>10800004</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4">
+        <v>10800005</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4">
+        <v>10800006</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4">
+        <v>10800007</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4">
+        <v>10800008</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4">
+        <v>10800009</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4">
+        <v>10800010</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4">
+        <v>10800011</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4">
+        <v>10800012</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4">
+        <v>10800013</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4">
+        <v>10800014</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4">
+        <v>10800015</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4">
+        <v>10800016</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="6780" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="7560" yWindow="2380" windowWidth="33960" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skeleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +285,34 @@
   </si>
   <si>
     <t>etama2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,8 +372,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -370,16 +395,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -707,56 +736,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="5.875" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="40.875" customWidth="1"/>
-    <col min="12" max="12" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" customWidth="1"/>
+    <col min="13" max="13" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -764,1234 +797,1344 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1"/>
-    <row r="5" spans="1:12" hidden="1"/>
-    <row r="6" spans="1:12">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1"/>
+    <row r="5" spans="1:13" hidden="1"/>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="G7">
+        <v>0.5</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="G9">
+        <v>0.5</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>10200001</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="G10">
+        <v>0.5</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>10200002</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="G11">
+        <v>0.5</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>10400001</v>
       </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
       <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="G14">
+        <v>0.5</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>10400002</v>
       </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="G15">
+        <v>0.5</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>10400003</v>
       </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
       <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="G16">
+        <v>0.5</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>10500001</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10500001</v>
+      </c>
+      <c r="F17">
         <v>0.875</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="G17">
+        <v>0.5</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>-90</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>10500002</v>
       </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
       <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="G18">
+        <v>0.5</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>10600101</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10600101</v>
       </c>
       <c r="F19">
         <v>0.5</v>
       </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="G19">
+        <v>0.5</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>10600102</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10600102</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="G20">
+        <v>0.5</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>10600103</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10600103</v>
       </c>
       <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="G21">
+        <v>0.5</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>10600104</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10600104</v>
       </c>
       <c r="F22">
         <v>0.5</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="G22">
+        <v>0.5</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>10600105</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10600105</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="G23">
+        <v>0.5</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>10600106</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10600106</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="G24">
+        <v>0.5</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>10600107</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10600107</v>
       </c>
       <c r="F25">
         <v>0.5</v>
       </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="G25">
+        <v>0.5</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>10600108</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10600108</v>
       </c>
       <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="G26">
+        <v>0.5</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>10600109</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10600109</v>
       </c>
       <c r="F27">
         <v>0.5</v>
       </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="G27">
+        <v>0.5</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>10600110</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10600110</v>
       </c>
       <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="G28">
+        <v>0.5</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>10600111</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10600111</v>
       </c>
       <c r="F29">
         <v>0.5</v>
       </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="G29">
+        <v>0.5</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>10600112</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10600112</v>
       </c>
       <c r="F30">
         <v>0.5</v>
       </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="G30">
+        <v>0.5</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>10600113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="D31" s="4">
+        <v>10600113</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3">
         <v>0.5</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
+      <c r="G31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>10600114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="D32" s="4">
+        <v>10600114</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3">
         <v>0.5</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
+      <c r="G32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>10600115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="D33" s="4">
+        <v>10600115</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3">
         <v>0.5</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+      <c r="G33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>10600116</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="D34" s="4">
+        <v>10600116</v>
       </c>
       <c r="F34">
         <v>0.5</v>
       </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="G34">
+        <v>0.5</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="4">
         <v>10800001</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35">
-        <v>0.5</v>
+        <v>69</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10800001</v>
       </c>
       <c r="F35">
         <v>0.5</v>
       </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="G35">
+        <v>0.5</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>10800002</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10800002</v>
       </c>
       <c r="F36">
         <v>0.5</v>
       </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="G36">
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="4">
         <v>10800003</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10800003</v>
       </c>
       <c r="F37">
         <v>0.5</v>
       </c>
-      <c r="H37">
-        <v>1</v>
+      <c r="G37">
+        <v>0.5</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="4">
         <v>10800004</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10800004</v>
       </c>
       <c r="F38" s="5">
         <v>0.5</v>
       </c>
-      <c r="H38" s="5">
-        <v>1</v>
+      <c r="G38" s="5">
+        <v>0.5</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="4">
         <v>10800005</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10800005</v>
       </c>
       <c r="F39" s="5">
         <v>0.5</v>
       </c>
-      <c r="H39" s="5">
-        <v>1</v>
+      <c r="G39" s="5">
+        <v>0.5</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="4">
         <v>10800006</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10800006</v>
       </c>
       <c r="F40" s="5">
         <v>0.5</v>
       </c>
-      <c r="H40" s="5">
-        <v>1</v>
+      <c r="G40" s="5">
+        <v>0.5</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="4">
         <v>10800007</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10800007</v>
       </c>
       <c r="F41" s="5">
         <v>0.5</v>
       </c>
-      <c r="H41" s="5">
-        <v>1</v>
+      <c r="G41" s="5">
+        <v>0.5</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="4">
         <v>10800008</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10800008</v>
       </c>
       <c r="F42" s="5">
         <v>0.5</v>
       </c>
-      <c r="H42" s="5">
-        <v>1</v>
+      <c r="G42" s="5">
+        <v>0.5</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
       </c>
       <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="4">
         <v>10800009</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10800009</v>
       </c>
       <c r="F43" s="5">
         <v>0.5</v>
       </c>
-      <c r="H43" s="5">
-        <v>1</v>
+      <c r="G43" s="5">
+        <v>0.5</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="4">
         <v>10800010</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10800010</v>
       </c>
       <c r="F44" s="5">
         <v>0.5</v>
       </c>
-      <c r="H44" s="5">
-        <v>1</v>
+      <c r="G44" s="5">
+        <v>0.5</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="4">
         <v>10800011</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="4">
+        <v>10800011</v>
       </c>
       <c r="F45" s="5">
         <v>0.5</v>
       </c>
-      <c r="H45" s="5">
-        <v>1</v>
+      <c r="G45" s="5">
+        <v>0.5</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
       </c>
       <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="4">
         <v>10800012</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10800012</v>
       </c>
       <c r="F46" s="5">
         <v>0.5</v>
       </c>
-      <c r="H46" s="5">
-        <v>1</v>
+      <c r="G46" s="5">
+        <v>0.5</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="4">
         <v>10800013</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D47" s="4">
+        <v>10800013</v>
       </c>
       <c r="F47" s="5">
         <v>0.5</v>
       </c>
-      <c r="H47" s="5">
-        <v>1</v>
+      <c r="G47" s="5">
+        <v>0.5</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
       </c>
       <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="4">
         <v>10800014</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D48" s="4">
+        <v>10800014</v>
       </c>
       <c r="F48" s="5">
         <v>0.5</v>
       </c>
-      <c r="H48" s="5">
-        <v>1</v>
+      <c r="G48" s="5">
+        <v>0.5</v>
       </c>
       <c r="I48" s="5">
         <v>1</v>
       </c>
       <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="4">
         <v>10800015</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10800015</v>
       </c>
       <c r="F49" s="5">
         <v>0.5</v>
       </c>
-      <c r="H49" s="5">
-        <v>1</v>
+      <c r="G49" s="5">
+        <v>0.5</v>
       </c>
       <c r="I49" s="5">
         <v>1</v>
       </c>
       <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="4">
         <v>10800016</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10800016</v>
       </c>
       <c r="F50" s="5">
         <v>0.5</v>
       </c>
-      <c r="H50" s="5">
-        <v>1</v>
+      <c r="G50" s="5">
+        <v>0.5</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2380" windowWidth="33960" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="7560" yWindow="2385" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,14 +305,166 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimu_bullet_01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimu_bullet_02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onmyouGyoku_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,19 +548,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -736,27 +888,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="40.875" customWidth="1"/>
     <col min="13" max="13" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -981,8 +1133,11 @@
       <c r="A10" s="1">
         <v>10200001</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -991,10 +1146,10 @@
         <v>0.5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1085,6 +1240,9 @@
       <c r="A14" s="1">
         <v>10400001</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F14">
         <v>0.5</v>
       </c>
@@ -1108,6 +1266,9 @@
       <c r="A15" s="1">
         <v>10400002</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F15">
         <v>0.5</v>
       </c>
@@ -1131,6 +1292,9 @@
       <c r="A16" s="1">
         <v>10400003</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F16">
         <v>0.5</v>
       </c>
@@ -1154,11 +1318,11 @@
       <c r="A17" s="1">
         <v>10500001</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4">
-        <v>10500001</v>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F17">
         <v>0.875</v>
@@ -1183,6 +1347,12 @@
       <c r="A18" s="1">
         <v>10500002</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F18">
         <v>0.5</v>
       </c>
@@ -1196,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>29</v>
@@ -1209,8 +1379,8 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4">
-        <v>10600101</v>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -1238,8 +1408,8 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4">
-        <v>10600102</v>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -1267,8 +1437,8 @@
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4">
-        <v>10600103</v>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -1294,8 +1464,8 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4">
-        <v>10600104</v>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F22">
         <v>0.5</v>
@@ -1321,8 +1491,8 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4">
-        <v>10600105</v>
+      <c r="D23" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F23">
         <v>0.5</v>
@@ -1348,8 +1518,8 @@
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4">
-        <v>10600106</v>
+      <c r="D24" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0.5</v>
@@ -1375,8 +1545,8 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4">
-        <v>10600107</v>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F25">
         <v>0.5</v>
@@ -1402,8 +1572,8 @@
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4">
-        <v>10600108</v>
+      <c r="D26" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F26">
         <v>0.5</v>
@@ -1429,8 +1599,8 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="4">
-        <v>10600109</v>
+      <c r="D27" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F27">
         <v>0.5</v>
@@ -1456,8 +1626,8 @@
       <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4">
-        <v>10600110</v>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -1483,8 +1653,8 @@
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4">
-        <v>10600111</v>
+      <c r="D29" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F29">
         <v>0.5</v>
@@ -1510,8 +1680,8 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="4">
-        <v>10600112</v>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F30">
         <v>0.5</v>
@@ -1538,8 +1708,8 @@
         <v>51</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4">
-        <v>10600113</v>
+      <c r="D31" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
@@ -1569,8 +1739,8 @@
         <v>51</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4">
-        <v>10600114</v>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
@@ -1600,8 +1770,8 @@
         <v>51</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="4">
-        <v>10600115</v>
+      <c r="D33" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
@@ -1630,8 +1800,8 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="4">
-        <v>10600116</v>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F34">
         <v>0.5</v>
@@ -1657,8 +1827,8 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="4">
-        <v>10800001</v>
+      <c r="D35" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -1686,8 +1856,8 @@
       <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="4">
-        <v>10800002</v>
+      <c r="D36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F36">
         <v>0.5</v>
@@ -1715,8 +1885,8 @@
       <c r="B37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="4">
-        <v>10800003</v>
+      <c r="D37" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F37">
         <v>0.5</v>
@@ -1744,8 +1914,8 @@
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="4">
-        <v>10800004</v>
+      <c r="D38" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F38" s="5">
         <v>0.5</v>
@@ -1773,8 +1943,8 @@
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="4">
-        <v>10800005</v>
+      <c r="D39" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F39" s="5">
         <v>0.5</v>
@@ -1802,8 +1972,8 @@
       <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="4">
-        <v>10800006</v>
+      <c r="D40" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F40" s="5">
         <v>0.5</v>
@@ -1831,8 +2001,8 @@
       <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4">
-        <v>10800007</v>
+      <c r="D41" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F41" s="5">
         <v>0.5</v>
@@ -1860,8 +2030,8 @@
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="4">
-        <v>10800008</v>
+      <c r="D42" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F42" s="5">
         <v>0.5</v>
@@ -1889,8 +2059,8 @@
       <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="4">
-        <v>10800009</v>
+      <c r="D43" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F43" s="5">
         <v>0.5</v>
@@ -1918,8 +2088,8 @@
       <c r="B44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="4">
-        <v>10800010</v>
+      <c r="D44" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F44" s="5">
         <v>0.5</v>
@@ -1947,8 +2117,8 @@
       <c r="B45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="4">
-        <v>10800011</v>
+      <c r="D45" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F45" s="5">
         <v>0.5</v>
@@ -1976,8 +2146,8 @@
       <c r="B46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="4">
-        <v>10800012</v>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F46" s="5">
         <v>0.5</v>
@@ -2005,8 +2175,8 @@
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="4">
-        <v>10800013</v>
+      <c r="D47" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F47" s="5">
         <v>0.5</v>
@@ -2034,8 +2204,8 @@
       <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="4">
-        <v>10800014</v>
+      <c r="D48" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F48" s="5">
         <v>0.5</v>
@@ -2063,8 +2233,8 @@
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="4">
-        <v>10800015</v>
+      <c r="D49" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F49" s="5">
         <v>0.5</v>
@@ -2092,8 +2262,8 @@
       <c r="B50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="4">
-        <v>10800016</v>
+      <c r="D50" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F50" s="5">
         <v>0.5</v>
@@ -2127,14 +2297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2385" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="7980" yWindow="4400" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,14 +457,30 @@
   </si>
   <si>
     <t>onmyouGyoku_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_10400001_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marisa_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alice_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wriggle_base_ani</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,19 +564,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -888,27 +904,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="40.875" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" customWidth="1"/>
     <col min="13" max="13" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1055,6 +1071,9 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
       <c r="F7">
         <v>0.5</v>
       </c>
@@ -1110,6 +1129,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="F9">
         <v>0.5</v>
       </c>
@@ -1191,6 +1213,9 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="F12">
         <v>0.5</v>
       </c>
@@ -1242,6 +1267,9 @@
       </c>
       <c r="B14" s="5" t="s">
         <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -2297,14 +2325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="4400" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="2900" yWindow="2580" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,325 +154,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukari_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用图集json(多个用;隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用骨骼json(多个用;隔开),与前面的一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转(角度制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama</t>
+  </si>
+  <si>
+    <t>增加火力</t>
+  </si>
+  <si>
+    <t>增加点数</t>
+  </si>
+  <si>
+    <t>大量火力</t>
+  </si>
+  <si>
+    <t>大量Bomb</t>
+  </si>
+  <si>
+    <t>大量F</t>
+  </si>
+  <si>
+    <t>加一条命</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>少量火力</t>
+  </si>
+  <si>
+    <t>少量点数</t>
+  </si>
+  <si>
+    <t>中等火力</t>
+  </si>
+  <si>
+    <t>中等Bomb</t>
+  </si>
+  <si>
+    <t>中等F</t>
+  </si>
+  <si>
+    <t>中等1Up</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>中等点数</t>
+  </si>
+  <si>
+    <t>etama2</t>
+  </si>
+  <si>
+    <t>etama2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimu_bullet_01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimu_bullet_02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onmyouGyoku_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_10400001_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marisa_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alice_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wriggle_base_ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>player00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yukari_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八云紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱丽丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所用图集json(多个用;隔开)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所用骨骼json(多个用;隔开),与前面的一一对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转(角度制)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etama</t>
-  </si>
-  <si>
-    <t>增加火力</t>
-  </si>
-  <si>
-    <t>增加点数</t>
-  </si>
-  <si>
-    <t>大量火力</t>
-  </si>
-  <si>
-    <t>大量Bomb</t>
-  </si>
-  <si>
-    <t>大量F</t>
-  </si>
-  <si>
-    <t>加一条命</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>少量火力</t>
-  </si>
-  <si>
-    <t>少量点数</t>
-  </si>
-  <si>
-    <t>中等火力</t>
-  </si>
-  <si>
-    <t>中等Bomb</t>
-  </si>
-  <si>
-    <t>中等F</t>
-  </si>
-  <si>
-    <t>中等1Up</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>中等点数</t>
-  </si>
-  <si>
-    <t>etama2</t>
-  </si>
-  <si>
-    <t>etama2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etama2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frameName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimu_bullet_01_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimu_bullet_02_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onmyouGyoku_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_10400001_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marisa_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alice_base_ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wriggle_base_ani</t>
+    <t>预览图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,8 +416,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,19 +447,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -925,30 +817,30 @@
     <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="40.83203125" customWidth="1"/>
-    <col min="13" max="13" width="46.5" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
         <v>13</v>
@@ -956,8 +848,11 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -965,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -980,22 +875,22 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1003,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1018,29 +913,29 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1"/>
-    <row r="5" spans="1:13" hidden="1"/>
-    <row r="6" spans="1:13">
+    <row r="4" spans="1:14" hidden="1"/>
+    <row r="5" spans="1:14" hidden="1"/>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1064,7 +959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
@@ -1072,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -1093,36 +988,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
@@ -1130,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>0.5</v>
@@ -1148,18 +1043,18 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>10200001</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -1180,7 +1075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>10200002</v>
       </c>
@@ -1206,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10300001</v>
       </c>
@@ -1214,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1235,7 +1130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>10300002</v>
       </c>
@@ -1261,15 +1156,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>10400001</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -1290,12 +1185,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>10400002</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -1316,12 +1211,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>10400003</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -1347,10 +1242,10 @@
         <v>10500001</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>0.875</v>
@@ -1376,10 +1271,10 @@
         <v>10500002</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -1401,343 +1296,389 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>10600101</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
+        <v>10600101</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>10600102</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.5</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4">
+        <v>10600102</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>10600103</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.5</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
+        <v>10600103</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>10600104</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-      <c r="G22">
-        <v>0.5</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4">
+        <v>10600104</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>10600105</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23">
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
+        <v>10600105</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>10600106</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24">
-        <v>0.5</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <v>10600106</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>10600107</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-      <c r="G25">
-        <v>0.5</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>10600107</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>10600108</v>
       </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26">
-        <v>0.5</v>
-      </c>
-      <c r="G26">
-        <v>0.5</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4">
+        <v>10600108</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>10600109</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
-      <c r="G27">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
+        <v>10600109</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>10600110</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0.5</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4">
+        <v>10600110</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>10600111</v>
       </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
+        <v>10600111</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>10600112</v>
       </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-      <c r="G30">
-        <v>0.5</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4">
+        <v>10600112</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>10600113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>102</v>
+      <c r="D31" s="4">
+        <v>10600113</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
@@ -1760,15 +1701,15 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>10600114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
+      <c r="D32" s="4">
+        <v>10600114</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
@@ -1791,15 +1732,15 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>10600115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
-        <v>100</v>
+      <c r="D33" s="4">
+        <v>10600115</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
@@ -1822,41 +1763,45 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>10600116</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>0.5</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4">
+        <v>10600116</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="4">
-        <v>10800001</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>98</v>
+      <c r="A35" s="1">
+        <v>10600201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10600201</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -1873,19 +1818,19 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>52</v>
+      <c r="M35" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="4">
-        <v>10800002</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>97</v>
+      <c r="A36" s="1">
+        <v>10600202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10600202</v>
       </c>
       <c r="F36">
         <v>0.5</v>
@@ -1902,19 +1847,17 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4">
-        <v>10800003</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>96</v>
+        <v>10600203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10600203</v>
       </c>
       <c r="F37">
         <v>0.5</v>
@@ -1931,385 +1874,833 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4">
-        <v>10800004</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>10600204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10600204</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4">
-        <v>10800005</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>10600205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10600205</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4">
-        <v>10800006</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>10600206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10600206</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4">
-        <v>10800007</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>10600207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10600207</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4">
-        <v>10800008</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>10600208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10600208</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4">
-        <v>10800009</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>10600209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10600209</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4">
-        <v>10800010</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="5">
-        <v>1</v>
-      </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>10600210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10600210</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4">
-        <v>10800011</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="5">
-        <v>1</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>10600211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4">
+        <v>10600211</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4">
-        <v>10800012</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>10600212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10600212</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4">
-        <v>10800013</v>
+        <v>10600213</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I47" s="5">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4">
+        <v>10600213</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4">
-        <v>10800014</v>
+        <v>10600214</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="5">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4">
+        <v>10600214</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4">
-        <v>10800015</v>
+        <v>10600215</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="5">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4">
+        <v>10600215</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4">
+        <v>10600216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10600216</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4">
+        <v>10800001</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10800001</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4">
+        <v>10800002</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4">
+        <v>10800002</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4">
+        <v>10800003</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10800003</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4">
+        <v>10800004</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="4">
+        <v>10800004</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4">
+        <v>10800005</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10800005</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4">
+        <v>10800006</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="4">
+        <v>10800006</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4">
+        <v>10800007</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10800007</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4">
+        <v>10800008</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10800008</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4">
+        <v>10800009</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="4">
+        <v>10800009</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4">
+        <v>10800010</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="4">
+        <v>10800010</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4">
+        <v>10800011</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="4">
+        <v>10800011</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4">
+        <v>10800012</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="4">
+        <v>10800012</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4">
+        <v>10800013</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10800013</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4">
+        <v>10800014</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10800014</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4">
+        <v>10800015</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10800015</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4">
         <v>10800016</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="5">
-        <v>1</v>
-      </c>
-      <c r="J50" s="5">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5">
-        <v>0</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="D66" s="4">
+        <v>10800016</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ResEditor/Design/Stage/G_Animations.xlsx
+++ b/ResEditor/Design/Stage/G_Animations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2580" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2895" yWindow="2580" windowWidth="25605" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激光?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>etama</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,9 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>etama</t>
-  </si>
-  <si>
     <t>增加火力</t>
   </si>
   <si>
@@ -288,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帧名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frameName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,19 +333,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预览图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预览图</t>
+    <t>类激光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧名称(可格式化[code])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etama6</t>
+  </si>
+  <si>
+    <t>etama6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="21">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -458,17 +467,16 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -796,28 +804,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="28.5" customWidth="1"/>
+    <col min="13" max="13" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -825,22 +833,22 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
         <v>13</v>
@@ -849,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -860,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -875,16 +883,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -898,10 +906,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -913,16 +921,16 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -935,7 +943,7 @@
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -967,7 +975,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -1025,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0.5</v>
@@ -1051,10 +1059,10 @@
         <v>10200001</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -1109,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1161,10 +1169,10 @@
         <v>10400001</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -1190,7 +1198,7 @@
         <v>10400002</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -1216,7 +1224,7 @@
         <v>10400003</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -1242,10 +1250,10 @@
         <v>10500001</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>0.875</v>
@@ -1271,10 +1279,10 @@
         <v>10500002</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -1297,14 +1305,14 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
-        <v>10600101</v>
+        <v>10600100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="4">
-        <v>10600101</v>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -1325,28 +1333,25 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1">
+      <c r="A20" s="4">
+        <v>10600200</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4">
-        <v>10600102</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4">
-        <v>10600102</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F20" s="5">
         <v>0.5</v>
       </c>
       <c r="G20" s="5">
         <v>0.5</v>
       </c>
-      <c r="H20" s="5"/>
       <c r="I20" s="5">
         <v>1</v>
       </c>
@@ -1356,28 +1361,26 @@
       <c r="K20" s="5">
         <v>0</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1">
       <c r="A21" s="4">
-        <v>10600103</v>
+        <v>10600300</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4">
-        <v>10600103</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F21" s="5">
         <v>0.5</v>
       </c>
       <c r="G21" s="5">
         <v>0.5</v>
       </c>
-      <c r="H21" s="5"/>
       <c r="I21" s="5">
         <v>1</v>
       </c>
@@ -1387,28 +1390,24 @@
       <c r="K21" s="5">
         <v>0</v>
       </c>
-      <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" s="5" customFormat="1">
       <c r="A22" s="4">
-        <v>10600104</v>
+        <v>10600400</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4">
-        <v>10600104</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="5">
         <v>0.5</v>
       </c>
       <c r="G22" s="5">
         <v>0.5</v>
       </c>
-      <c r="H22" s="5"/>
       <c r="I22" s="5">
         <v>1</v>
       </c>
@@ -1418,28 +1417,24 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" s="5" customFormat="1">
       <c r="A23" s="4">
-        <v>10600105</v>
+        <v>10600500</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4">
-        <v>10600105</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F23" s="5">
         <v>0.5</v>
       </c>
       <c r="G23" s="5">
         <v>0.5</v>
       </c>
-      <c r="H23" s="5"/>
       <c r="I23" s="5">
         <v>1</v>
       </c>
@@ -1449,28 +1444,24 @@
       <c r="K23" s="5">
         <v>0</v>
       </c>
-      <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" s="5" customFormat="1">
       <c r="A24" s="4">
-        <v>10600106</v>
+        <v>10600600</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4">
-        <v>10600106</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F24" s="5">
         <v>0.5</v>
       </c>
       <c r="G24" s="5">
         <v>0.5</v>
       </c>
-      <c r="H24" s="5"/>
       <c r="I24" s="5">
         <v>1</v>
       </c>
@@ -1480,28 +1471,24 @@
       <c r="K24" s="5">
         <v>0</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" s="5" customFormat="1">
       <c r="A25" s="4">
-        <v>10600107</v>
+        <v>10600700</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4">
-        <v>10600107</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F25" s="5">
         <v>0.5</v>
       </c>
       <c r="G25" s="5">
         <v>0.5</v>
       </c>
-      <c r="H25" s="5"/>
       <c r="I25" s="5">
         <v>1</v>
       </c>
@@ -1511,28 +1498,24 @@
       <c r="K25" s="5">
         <v>0</v>
       </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" s="5" customFormat="1">
       <c r="A26" s="4">
-        <v>10600108</v>
+        <v>10600800</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4">
-        <v>10600108</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F26" s="5">
         <v>0.5</v>
       </c>
       <c r="G26" s="5">
         <v>0.5</v>
       </c>
-      <c r="H26" s="5"/>
       <c r="I26" s="5">
         <v>1</v>
       </c>
@@ -1542,28 +1525,24 @@
       <c r="K26" s="5">
         <v>0</v>
       </c>
-      <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" s="5" customFormat="1">
       <c r="A27" s="4">
-        <v>10600109</v>
+        <v>10600900</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4">
-        <v>10600109</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F27" s="5">
         <v>0.5</v>
       </c>
       <c r="G27" s="5">
         <v>0.5</v>
       </c>
-      <c r="H27" s="5"/>
       <c r="I27" s="5">
         <v>1</v>
       </c>
@@ -1573,28 +1552,24 @@
       <c r="K27" s="5">
         <v>0</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" s="5" customFormat="1">
       <c r="A28" s="4">
-        <v>10600110</v>
+        <v>10601000</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4">
-        <v>10600110</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F28" s="5">
         <v>0.5</v>
       </c>
       <c r="G28" s="5">
         <v>0.5</v>
       </c>
-      <c r="H28" s="5"/>
       <c r="I28" s="5">
         <v>1</v>
       </c>
@@ -1604,28 +1579,24 @@
       <c r="K28" s="5">
         <v>0</v>
       </c>
-      <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" s="5" customFormat="1">
       <c r="A29" s="4">
-        <v>10600111</v>
+        <v>10601100</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4">
-        <v>10600111</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="5">
         <v>0.5</v>
       </c>
       <c r="G29" s="5">
         <v>0.5</v>
       </c>
-      <c r="H29" s="5"/>
       <c r="I29" s="5">
         <v>1</v>
       </c>
@@ -1635,28 +1606,24 @@
       <c r="K29" s="5">
         <v>0</v>
       </c>
-      <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" s="5" customFormat="1">
       <c r="A30" s="4">
-        <v>10600112</v>
+        <v>10601200</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4">
-        <v>10600112</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F30" s="5">
         <v>0.5</v>
       </c>
       <c r="G30" s="5">
         <v>0.5</v>
       </c>
-      <c r="H30" s="5"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
@@ -1666,121 +1633,105 @@
       <c r="K30" s="5">
         <v>0</v>
       </c>
-      <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" s="5" customFormat="1">
       <c r="A31" s="4">
-        <v>10600113</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4">
-        <v>10600113</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10601300</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1">
       <c r="A32" s="4">
-        <v>10600114</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4">
-        <v>10600114</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10601400</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1">
       <c r="A33" s="4">
-        <v>10600115</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4">
-        <v>10600115</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13">
+        <v>10601500</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1">
       <c r="A34" s="4">
-        <v>10600116</v>
+        <v>10601600</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4">
-        <v>10600116</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F34" s="5">
         <v>0.5</v>
       </c>
       <c r="G34" s="5">
         <v>0.5</v>
       </c>
-      <c r="H34" s="5"/>
       <c r="I34" s="5">
         <v>1</v>
       </c>
@@ -1790,182 +1741,179 @@
       <c r="K34" s="5">
         <v>0</v>
       </c>
-      <c r="L34" s="5"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>10600201</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="4">
-        <v>10600201</v>
-      </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>0.5</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1">
-        <v>10600202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10600202</v>
-      </c>
-      <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36">
-        <v>0.5</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
+    <row r="35" spans="1:13" s="5" customFormat="1">
+      <c r="A35" s="4">
+        <v>10601700</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" s="5" customFormat="1">
+      <c r="A36" s="4">
+        <v>10601800</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" s="5" customFormat="1">
       <c r="A37" s="4">
-        <v>10600203</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10600203</v>
-      </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>0.5</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10601900</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1">
       <c r="A38" s="4">
-        <v>10600204</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="4">
-        <v>10600204</v>
-      </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10602000</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1">
       <c r="A39" s="4">
-        <v>10600205</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4">
-        <v>10600205</v>
-      </c>
-      <c r="F39">
-        <v>0.5</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10602100</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1">
       <c r="A40" s="4">
-        <v>10600206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="4">
-        <v>10600206</v>
-      </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-      <c r="G40">
-        <v>0.5</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1"/>
+        <v>10602200</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4">
-        <v>10600207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
+        <v>10800001</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D41" s="4">
-        <v>10600207</v>
+        <v>10800001</v>
       </c>
       <c r="F41">
         <v>0.5</v>
@@ -1982,17 +1930,19 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="M41" s="1"/>
+      <c r="M41" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4">
-        <v>10600208</v>
-      </c>
-      <c r="B42" t="s">
-        <v>38</v>
+        <v>10800002</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="4">
-        <v>10600208</v>
+        <v>10800002</v>
       </c>
       <c r="F42">
         <v>0.5</v>
@@ -2009,17 +1959,19 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="M42" s="1"/>
+      <c r="M42" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4">
-        <v>10600209</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
+        <v>10800003</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="4">
-        <v>10600209</v>
+        <v>10800003</v>
       </c>
       <c r="F43">
         <v>0.5</v>
@@ -2036,305 +1988,309 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="M43" s="1"/>
+      <c r="M43" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4">
-        <v>10600210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
+        <v>10800004</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D44" s="4">
-        <v>10600210</v>
-      </c>
-      <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44">
-        <v>0.5</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>10800004</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4">
-        <v>10600211</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
+        <v>10800005</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D45" s="4">
-        <v>10600211</v>
-      </c>
-      <c r="F45">
-        <v>0.5</v>
-      </c>
-      <c r="G45">
-        <v>0.5</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1"/>
+        <v>10800005</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4">
-        <v>10600212</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
+        <v>10800006</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D46" s="4">
-        <v>10600212</v>
-      </c>
-      <c r="F46">
-        <v>0.5</v>
-      </c>
-      <c r="G46">
-        <v>0.5</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1"/>
+        <v>10800006</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4">
-        <v>10600213</v>
+        <v>10800007</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>65</v>
+      </c>
       <c r="D47" s="4">
-        <v>10600213</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+        <v>10800007</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4">
-        <v>10600214</v>
+        <v>10800008</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>65</v>
+      </c>
       <c r="D48" s="4">
-        <v>10600214</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+        <v>10800008</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4">
-        <v>10600215</v>
+        <v>10800009</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>65</v>
+      </c>
       <c r="D49" s="4">
-        <v>10600215</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+        <v>10800009</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4">
-        <v>10600216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>38</v>
+        <v>10800010</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D50" s="4">
-        <v>10600216</v>
-      </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
-        <v>0.5</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1"/>
+        <v>10800010</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="4">
-        <v>10800001</v>
+        <v>10800011</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="4">
-        <v>10800001</v>
-      </c>
-      <c r="F51">
-        <v>0.5</v>
-      </c>
-      <c r="G51">
-        <v>0.5</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
+        <v>10800011</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4">
-        <v>10800002</v>
+        <v>10800012</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
-        <v>10800002</v>
-      </c>
-      <c r="F52">
-        <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>0.5</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
+        <v>10800012</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
         <v>0</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4">
-        <v>10800003</v>
+        <v>10800013</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="4">
-        <v>10800003</v>
-      </c>
-      <c r="F53">
-        <v>0.5</v>
-      </c>
-      <c r="G53">
-        <v>0.5</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
+        <v>10800013</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
         <v>0</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4">
-        <v>10800004</v>
+        <v>10800014</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="4">
-        <v>10800004</v>
+        <v>10800014</v>
       </c>
       <c r="F54" s="5">
         <v>0.5</v>
@@ -2352,18 +2308,18 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4">
-        <v>10800005</v>
+        <v>10800015</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" s="4">
-        <v>10800005</v>
+        <v>10800015</v>
       </c>
       <c r="F55" s="5">
         <v>0.5</v>
@@ -2381,18 +2337,18 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4">
-        <v>10800006</v>
+        <v>10800016</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56" s="4">
-        <v>10800006</v>
+        <v>10800016</v>
       </c>
       <c r="F56" s="5">
         <v>0.5</v>
@@ -2410,297 +2366,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="4">
-        <v>10800007</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="4">
-        <v>10800007</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="4">
-        <v>10800008</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="4">
-        <v>10800008</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="5">
-        <v>1</v>
-      </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="4">
-        <v>10800009</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="4">
-        <v>10800009</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="4">
-        <v>10800010</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="4">
-        <v>10800010</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1</v>
-      </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5">
-        <v>0</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="4">
-        <v>10800011</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="4">
-        <v>10800011</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="5">
-        <v>1</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5">
-        <v>0</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="4">
-        <v>10800012</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="4">
-        <v>10800012</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="4">
-        <v>10800013</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="4">
-        <v>10800013</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="4">
-        <v>10800014</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="4">
-        <v>10800014</v>
-      </c>
-      <c r="F64" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5">
-        <v>1</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0</v>
-      </c>
-      <c r="M64" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="4">
-        <v>10800015</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="4">
-        <v>10800015</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="5">
-        <v>1</v>
-      </c>
-      <c r="K65" s="5">
-        <v>0</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="4">
-        <v>10800016</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="4">
-        <v>10800016</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="5">
-        <v>1</v>
-      </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="5">
-        <v>0</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2716,14 +2382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
